--- a/data/05_input/zm.ca19a3.xlsx
+++ b/data/05_input/zm.ca19a3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/45E71E8C-ABA7-48F2-857F-DEA94A3B82BE/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/296D0788-6955-4371-9878-84CB215F2DDB/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76948FBB-D7A9-D944-B803-1E2DC5392B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B212F-2F76-354D-8E7E-CF9E230085E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11140" yWindow="4380" windowWidth="16000" windowHeight="16620" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
   <si>
     <t>SampleID</t>
   </si>
@@ -232,16 +232,131 @@
   </si>
   <si>
     <t>H2AZ_leaf</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>s28</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>s30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,9 +382,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,11 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,7 +713,7 @@
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +747,19 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -654,8 +779,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>69</v>
       </c>
       <c r="J2">
         <v>27732267</v>
@@ -663,10 +788,13 @@
       <c r="K2">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -686,8 +814,8 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>69</v>
       </c>
       <c r="J3">
         <v>19252409</v>
@@ -695,10 +823,13 @@
       <c r="K3">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -718,8 +849,8 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>69</v>
       </c>
       <c r="J4">
         <v>50627599</v>
@@ -727,10 +858,13 @@
       <c r="K4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -750,8 +884,8 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>69</v>
       </c>
       <c r="J5">
         <v>51044191</v>
@@ -759,10 +893,13 @@
       <c r="K5">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -782,8 +919,8 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="s">
+        <v>69</v>
       </c>
       <c r="J6">
         <v>24095651</v>
@@ -791,10 +928,13 @@
       <c r="K6">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -814,8 +954,8 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="s">
+        <v>69</v>
       </c>
       <c r="J7">
         <v>24046522</v>
@@ -823,10 +963,13 @@
       <c r="K7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -846,8 +989,8 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>69</v>
       </c>
       <c r="J8">
         <v>49208879</v>
@@ -855,10 +998,13 @@
       <c r="K8">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -878,8 +1024,8 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>69</v>
       </c>
       <c r="J9">
         <v>75396238</v>
@@ -887,10 +1033,13 @@
       <c r="K9">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -910,8 +1059,8 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>69</v>
       </c>
       <c r="J10">
         <v>48198327</v>
@@ -919,10 +1068,13 @@
       <c r="K10">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -942,8 +1094,8 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>69</v>
       </c>
       <c r="J11">
         <v>48459950</v>
@@ -951,10 +1103,13 @@
       <c r="K11">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -974,8 +1129,8 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>69</v>
       </c>
       <c r="J12">
         <v>14706690</v>
@@ -983,10 +1138,13 @@
       <c r="K12">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1006,8 +1164,8 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>69</v>
       </c>
       <c r="J13">
         <v>14206461</v>
@@ -1015,10 +1173,13 @@
       <c r="K13">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1038,8 +1199,8 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>69</v>
       </c>
       <c r="J14">
         <v>14631000</v>
@@ -1047,10 +1208,13 @@
       <c r="K14">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1070,8 +1234,8 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="s">
+        <v>69</v>
       </c>
       <c r="J15">
         <v>30604762</v>
@@ -1079,10 +1243,13 @@
       <c r="K15">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1102,8 +1269,8 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>69</v>
       </c>
       <c r="J16">
         <v>23017373</v>
@@ -1111,10 +1278,13 @@
       <c r="K16">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1134,8 +1304,8 @@
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="s">
+        <v>69</v>
       </c>
       <c r="J17">
         <v>42990103</v>
@@ -1143,10 +1313,13 @@
       <c r="K17">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1166,8 +1339,8 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="I18" t="s">
+        <v>69</v>
       </c>
       <c r="J18">
         <v>46542831</v>
@@ -1175,10 +1348,13 @@
       <c r="K18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1198,8 +1374,8 @@
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="s">
+        <v>69</v>
       </c>
       <c r="J19">
         <v>15137000</v>
@@ -1207,10 +1383,13 @@
       <c r="K19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1224,8 +1403,8 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="s">
+        <v>69</v>
       </c>
       <c r="J20">
         <v>22716315</v>
@@ -1233,10 +1412,13 @@
       <c r="K20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1250,8 +1432,8 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="s">
+        <v>69</v>
       </c>
       <c r="J21">
         <v>20824166</v>
@@ -1259,10 +1441,13 @@
       <c r="K21">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1282,8 +1467,8 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="I22" t="s">
+        <v>69</v>
       </c>
       <c r="J22">
         <v>78963021</v>
@@ -1291,10 +1476,13 @@
       <c r="K22">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1314,8 +1502,8 @@
       <c r="H23">
         <v>2</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="I23" t="s">
+        <v>69</v>
       </c>
       <c r="J23">
         <v>72768893</v>
@@ -1323,10 +1511,13 @@
       <c r="K23">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1346,8 +1537,8 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="I24" t="s">
+        <v>69</v>
       </c>
       <c r="J24">
         <v>41183792</v>
@@ -1355,10 +1546,13 @@
       <c r="K24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1378,8 +1572,8 @@
       <c r="H25">
         <v>2</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="I25" t="s">
+        <v>69</v>
       </c>
       <c r="J25">
         <v>56234785</v>
@@ -1387,10 +1581,13 @@
       <c r="K25">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1410,8 +1607,8 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="I26" t="s">
+        <v>69</v>
       </c>
       <c r="J26">
         <v>42571199</v>
@@ -1419,10 +1616,13 @@
       <c r="K26">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1442,8 +1642,8 @@
       <c r="H27">
         <v>2</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="I27" t="s">
+        <v>69</v>
       </c>
       <c r="J27">
         <v>44288396</v>
@@ -1451,10 +1651,13 @@
       <c r="K27">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1474,8 +1677,8 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="I28" t="s">
+        <v>69</v>
       </c>
       <c r="J28">
         <v>20524329</v>
@@ -1483,10 +1686,13 @@
       <c r="K28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1506,8 +1712,8 @@
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="I29" t="s">
+        <v>69</v>
       </c>
       <c r="J29">
         <v>38591965</v>
@@ -1515,10 +1721,13 @@
       <c r="K29">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1538,8 +1747,8 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="I30" t="s">
+        <v>69</v>
       </c>
       <c r="J30">
         <v>13843701</v>
@@ -1547,10 +1756,13 @@
       <c r="K30">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1564,20 +1776,24 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>69</v>
       </c>
       <c r="J31">
         <v>33165873</v>
       </c>
       <c r="K31">
         <v>75</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
     <sortCondition ref="A2:A31"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>